--- a/OASystem/WebContent/template/Apply_A4.xlsx
+++ b/OASystem/WebContent/template/Apply_A4.xlsx
@@ -15,7 +15,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Z$43</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -683,11 +682,143 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,140 +841,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,68 +1148,68 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="S3" sqref="S3:Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="71"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="74"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="38"/>
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -1231,22 +1230,22 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="76"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1256,12 +1255,12 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -1273,70 +1272,70 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="79"/>
-      <c r="Y5" s="79"/>
-      <c r="Z5" s="80"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="44"/>
     </row>
     <row r="6" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="82"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46"/>
     </row>
     <row r="7" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="19"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1346,10 +1345,10 @@
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -1361,35 +1360,35 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="83" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="84" t="s">
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="40" t="s">
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
       <c r="V8" s="20" t="s">
         <v>19</v>
       </c>
@@ -1405,24 +1404,24 @@
       <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="16" t="s">
         <v>19</v>
       </c>
@@ -1445,27 +1444,27 @@
       <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
@@ -1508,39 +1507,39 @@
     </row>
     <row r="12" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41" t="s">
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41" t="s">
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41" t="s">
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
       <c r="Y12" s="27"/>
@@ -1548,27 +1547,27 @@
     </row>
     <row r="13" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -1576,27 +1575,27 @@
     </row>
     <row r="14" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -1604,27 +1603,27 @@
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -1632,27 +1631,27 @@
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -1809,32 +1808,32 @@
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
-      <c r="K22" s="53" t="s">
+      <c r="K22" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="53" t="s">
+      <c r="O22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53" t="s">
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53" t="s">
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53" t="s">
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="48"/>
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -1847,22 +1846,22 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="57"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="58"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
@@ -1875,22 +1874,22 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="60"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="61"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="54"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -1903,22 +1902,22 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="63"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="64"/>
       <c r="N25" s="12"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
     </row>
     <row r="26" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -1949,13 +1948,13 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1980,290 +1979,290 @@
     </row>
     <row r="28" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="47" t="s">
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47" t="s">
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47" t="s">
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="48"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="72"/>
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="46"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="75"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="75"/>
+      <c r="Y29" s="76"/>
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="46"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="74"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="75"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="76"/>
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="46"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="76"/>
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="44"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="46"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="73"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="76"/>
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="46"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="73"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="73"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="75"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="75"/>
+      <c r="Y33" s="76"/>
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="46"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="73"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="76"/>
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="46"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="76"/>
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="46"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="74"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="76"/>
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="37"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="39"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="82"/>
+      <c r="V37" s="82"/>
+      <c r="W37" s="82"/>
+      <c r="X37" s="82"/>
+      <c r="Y37" s="83"/>
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2435,13 +2434,86 @@
       <c r="Z43" s="12"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="100">
-    <mergeCell ref="A1:Z2"/>
-    <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:Z6"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="K33:S33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="X23:Z25"/>
+    <mergeCell ref="U23:W25"/>
+    <mergeCell ref="R23:T25"/>
+    <mergeCell ref="O23:Q25"/>
+    <mergeCell ref="K23:M25"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="X22:Z22"/>
@@ -2458,84 +2530,12 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="U22:W22"/>
-    <mergeCell ref="R22:T22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="X23:Z25"/>
-    <mergeCell ref="U23:W25"/>
-    <mergeCell ref="R23:T25"/>
-    <mergeCell ref="O23:Q25"/>
-    <mergeCell ref="K23:M25"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="K28:S28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="K29:S29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:S31"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="K32:S32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="K33:S33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="K34:S34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K35:S35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="K36:S36"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="K37:S37"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="A1:Z2"/>
+    <mergeCell ref="S3:Z3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
